--- a/src/test/resources/org/xlbean/xlscript/Test_skipScript.xlsx
+++ b/src/test/resources/org/xlbean/xlscript/Test_skipScript.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\xldsl\xlscript\src\test\resources\org\xlbean\xlscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3BA8F9-9850-46FE-A724-634746B1B8F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F2F11-E5F7-4D73-8F23-6E7B55862DFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="-108" windowWidth="29484" windowHeight="17496" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
+    <workbookView xWindow="1344" yWindow="-108" windowWidth="29484" windowHeight="17496" activeTab="1" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
   </bookViews>
   <sheets>
-    <sheet name="firstSheet_wo_scriptOrder" sheetId="1" r:id="rId1"/>
+    <sheet name="skipScript1" sheetId="1" r:id="rId1"/>
+    <sheet name="skipScriptWithToMap" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>####</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +59,50 @@
   </si>
   <si>
     <t>`println "test3-${test1}"`</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list#key?toMap=key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list#value?toMap=value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list?skipScript=true#~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`arg1`</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`arg2`</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`aaa + bbb`</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`"test${ccc}"`</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -104,8 +149,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB2253C-CCB8-45E9-9DEE-AFFA88924DB6}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -470,4 +518,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083B0B6F-67C2-48B3-A897-38CAAC679078}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>